--- a/bet_list.xlsx
+++ b/bet_list.xlsx
@@ -58,19 +58,19 @@
     <t xml:space="preserve">яяяяБ</t>
   </si>
   <si>
-    <t xml:space="preserve">Tundra 2 — 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtus Pro 2 - 0</t>
+    <t xml:space="preserve">Tundra (2 — 0) -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtus Pro (2 — 0) -</t>
   </si>
   <si>
     <t xml:space="preserve">яБА</t>
   </si>
   <si>
-    <t xml:space="preserve">Tundra 2 — 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtus Pro 2 — 1</t>
+    <t xml:space="preserve">Tundra (2 — 1) -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtus Pro (2 — 1) -</t>
   </si>
   <si>
     <t xml:space="preserve">яББ</t>
@@ -85,19 +85,19 @@
     <t xml:space="preserve">яяяяС</t>
   </si>
   <si>
-    <t xml:space="preserve">XXX 2 — 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunway 2 — 0</t>
+    <t xml:space="preserve">XXX (2 — 0) -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunway (2 — 0) -</t>
   </si>
   <si>
     <t xml:space="preserve">яСА</t>
   </si>
   <si>
-    <t xml:space="preserve">XXX 2 — 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunway 2 — 1</t>
+    <t xml:space="preserve">XXX )2 — 1) -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunway (2 — 1) -</t>
   </si>
   <si>
     <t xml:space="preserve">яСБ</t>
@@ -226,12 +226,12 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
   </cols>
   <sheetData>
